--- a/v1.2/HARDWARE/BOM.xlsx
+++ b/v1.2/HARDWARE/BOM.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\iWatch-v1,2\v1.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0B8C3F-AD33-4728-9F9D-9A401103EE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,15 +84,9 @@
     <t>D3</t>
   </si>
   <si>
-    <t>LED-0603-white-M</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
-    <t>LED-0603-Red-N</t>
-  </si>
-  <si>
     <t>RF-BM-4044B4</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>LQFP48 7X7_N</t>
-  </si>
-  <si>
     <t>CH340E</t>
   </si>
   <si>
@@ -222,9 +207,6 @@
     <t>LIS3MDL</t>
   </si>
   <si>
-    <t>ultra-low-power high-performance three-axis magnetic sensor</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
@@ -234,9 +216,6 @@
     <t>PCF8563</t>
   </si>
   <si>
-    <t>Real-Time Clock and calendar</t>
-  </si>
-  <si>
     <t>U6</t>
   </si>
   <si>
@@ -258,9 +237,6 @@
     <t>BME280</t>
   </si>
   <si>
-    <t>Combined humidity and pressure sensor</t>
-  </si>
-  <si>
     <t>U8</t>
   </si>
   <si>
@@ -314,109 +290,136 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>D1, D2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源晶振</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICRO USB接口</t>
+  </si>
+  <si>
+    <t>C-钽电容-3216-N</t>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速开关二极管</t>
+  </si>
+  <si>
+    <t>白光贴片LED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红光贴片LED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N沟道场效应管</t>
+  </si>
+  <si>
+    <t>NPN型三极管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸣器5020</t>
+  </si>
+  <si>
+    <t>MICRO-USB-牛角插板-无卷边</t>
+  </si>
+  <si>
+    <t>1.27间距插针, 3-Pin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.27间距插针, 15-Pin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1路波动开关</t>
+  </si>
+  <si>
+    <t>3x6轻触开关</t>
+  </si>
+  <si>
+    <t>锂电池充电ic</t>
+  </si>
+  <si>
+    <t>基于TI公司 CC2640R2F 芯片的低功耗蓝牙(BLE)射频模块</t>
+  </si>
+  <si>
+    <t>单色1.3寸OLED裸屏，分辨率128x64，驱动SSD1316</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片蜂鸣器5020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT-3.7v-302530</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7v锂电池，尺寸302530</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTERY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片无极性电容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片有极性电容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三轴磁力计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时时钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度湿度压强一体式传感器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强型51单片机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB转串口芯片，免外部晶振，超小封装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP48 7X7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>MK-12C02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>D1, D2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无源晶振</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICRO USB接口</t>
-  </si>
-  <si>
-    <t>陶瓷电容</t>
-  </si>
-  <si>
-    <t>电解电容</t>
-  </si>
-  <si>
-    <t>C-钽电容-3216-N</t>
-  </si>
-  <si>
-    <t>贴片电阻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速开关二极管</t>
-  </si>
-  <si>
-    <t>白光贴片LED</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红光贴片LED</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N沟道场效应管</t>
-  </si>
-  <si>
-    <t>NPN型三极管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂鸣器5020</t>
-  </si>
-  <si>
-    <t>MICRO-USB-牛角插板-无卷边</t>
-  </si>
-  <si>
-    <t>1.27间距插针, 3-Pin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.27间距插针, 15-Pin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1路波动开关</t>
-  </si>
-  <si>
-    <t>3x6轻触开关</t>
-  </si>
-  <si>
-    <t>单片机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB转串口，免外部晶振，超小封装</t>
-  </si>
-  <si>
-    <t>锂电池充电ic</t>
-  </si>
-  <si>
-    <t>基于TI公司 CC2640R2F 芯片的低功耗蓝牙(BLE)射频模块</t>
-  </si>
-  <si>
-    <t>单色1.3寸OLED裸屏，分辨率128x64，驱动SSD1316</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片蜂鸣器5020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAT-3.7v-302530</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.7v锂电池，尺寸302530</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BATTERY</t>
+    <t>LED-0603</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,18 +777,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -819,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -836,10 +839,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -853,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -870,10 +873,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -887,13 +890,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -904,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -921,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -935,16 +938,16 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -952,16 +955,16 @@
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -969,16 +972,16 @@
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -986,16 +989,16 @@
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -1003,16 +1006,16 @@
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -1020,16 +1023,16 @@
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1037,16 +1040,16 @@
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1057,10 +1060,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
@@ -1074,13 +1077,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1091,13 +1094,13 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1105,16 +1108,16 @@
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -1122,16 +1125,16 @@
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1139,16 +1142,16 @@
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -1159,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1173,16 +1176,16 @@
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -1190,16 +1193,16 @@
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
@@ -1207,16 +1210,16 @@
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1224,16 +1227,16 @@
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1241,16 +1244,16 @@
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -1258,16 +1261,16 @@
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1275,16 +1278,16 @@
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -1292,16 +1295,16 @@
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1309,16 +1312,16 @@
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -1326,16 +1329,16 @@
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -1343,16 +1346,16 @@
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -1360,16 +1363,16 @@
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -1377,16 +1380,16 @@
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -1394,16 +1397,16 @@
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -1411,16 +1414,16 @@
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -1428,13 +1431,13 @@
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="4">
